--- a/src/test/java/day13_excelOtomasyon/ulkeler.xlsx
+++ b/src/test/java/day13_excelOtomasyon/ulkeler.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="581">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1744,6 +1744,27 @@
   </si>
   <si>
     <t>Nufus</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>5400</t>
+  </si>
+  <si>
+    <t>2500000</t>
+  </si>
+  <si>
+    <t>Nufus Mudurlugu</t>
+  </si>
+  <si>
+    <t>16000000</t>
+  </si>
+  <si>
+    <t>2600000</t>
+  </si>
+  <si>
+    <t>550000</t>
   </si>
 </sst>
 </file>
@@ -2171,7 +2192,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E191"/>
+  <dimension ref="A1:F191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:F1048576"/>
@@ -2198,6 +2219,9 @@
       <c r="E1" t="s" s="0">
         <v>573</v>
       </c>
+      <c r="F1" t="s" s="0">
+        <v>577</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -2212,8 +2236,8 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="n" s="0">
-        <v>150000.0</v>
+      <c r="E2" t="s" s="0">
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2229,6 +2253,12 @@
       <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="E3" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>578</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2328,7 +2358,7 @@
         <v>30</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>250000.0</v>
+        <v>2500000.0</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2344,6 +2374,9 @@
       <c r="D11" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="E11" t="s" s="0">
+        <v>576</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -2358,6 +2391,9 @@
       <c r="D12" s="8" t="s">
         <v>39</v>
       </c>
+      <c r="F12" t="s" s="0">
+        <v>579</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -2400,8 +2436,8 @@
       <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E15" t="n" s="0">
-        <v>54000.0</v>
+      <c r="E15" t="s" s="0">
+        <v>575</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2417,6 +2453,9 @@
       <c r="D16" s="8" t="s">
         <v>51</v>
       </c>
+      <c r="E16" t="s" s="0">
+        <v>575</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -2430,6 +2469,9 @@
       </c>
       <c r="D17" s="7" t="s">
         <v>53</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
